--- a/target/test-classes/DataDrivenTesting/ProgData.xlsx
+++ b/target/test-classes/DataDrivenTesting/ProgData.xlsx
@@ -31,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -64,6 +64,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,23 +87,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +118,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -157,29 +180,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -215,181 +215,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +414,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,38 +475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,18 +503,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,127 +524,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,8 +979,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
